--- a/biology/Zoologie/Hepatus_aliala/Hepatus_aliala.xlsx
+++ b/biology/Zoologie/Hepatus_aliala/Hepatus_aliala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson chirurgien à joues blanches, Chirurgien gris, Chirurgien à marques jaunes, Chirurgien noirâtre, Chirurgien velours
 Acanthurus nigricans, communément nommé Poisson chirurgien à joues blanches, est une espèce de poissons marins de la famille des Acanthuridae (les « poissons-chirurgiens »).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un poisson-chirurgien de taille moyenne (15-20 cm), au corps élevé et très aplati latéralement. Le corps est sombre (de marron à violet), caractérisé par une tache blanche sous l’œil, un liseré jaune vif à la base des nageoires dorsale et anale (ainsi qu'autour des épines caudales), toutes les nageoires se terminant par un liseré bleu. La caudale est blanche[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson-chirurgien de taille moyenne (15-20 cm), au corps élevé et très aplati latéralement. Le corps est sombre (de marron à violet), caractérisé par une tache blanche sous l’œil, un liseré jaune vif à la base des nageoires dorsale et anale (ainsi qu'autour des épines caudales), toutes les nageoires se terminant par un liseré bleu. La caudale est blanche. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fréquente les eaux tropicales de la zone centrale de l'Indo-Pacifique jusqu'aux côtes orientales de l'océan Pacifique, l'archipel d'Hawaï inclus[4]. On le rencontre entre la surface et 60 m de profondeur, mais il est plus courant dans les premiers mètres, à proximité des récifs de corail[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les eaux tropicales de la zone centrale de l'Indo-Pacifique jusqu'aux côtes orientales de l'océan Pacifique, l'archipel d'Hawaï inclus. On le rencontre entre la surface et 60 m de profondeur, mais il est plus courant dans les premiers mètres, à proximité des récifs de corail. 
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
